--- a/check_result.xlsx
+++ b/check_result.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>网站</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Result</t>
+          <t>是否可访问</t>
         </is>
       </c>
     </row>
